--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3721222.980582218</v>
+        <v>3824634.716546299</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498522</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7454452.127803635</v>
+        <v>7419422.406530879</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>265.4239910539172</v>
+        <v>66.59597893822716</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>88.99634965464197</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>81.56018748672099</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>240.3639337179237</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>100.5196155760011</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,13 +952,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>156.7181041023629</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>97.97724076774111</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>327.7108703794804</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>52.4775067119379</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>10.6516337432204</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>195.1588935294664</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.19779014108477</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>55.52079624060509</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>4.019807611472458</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,13 +1897,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>163.5188249813917</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>14.76058440587633</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>57.8244908215239</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>112.760686031999</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>86.62626738629581</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>45.36631724422193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652599</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>37.01163236946537</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>52.21533522728885</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C2" t="n">
         <v>1572.164517693149</v>
@@ -4313,10 +4315,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3057.500780140567</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W2" t="n">
-        <v>2704.732124870452</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.266366609373</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4480,22 +4482,22 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
         <v>1735.608663915319</v>
@@ -4519,16 +4521,16 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835076</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.926006153619</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.926006153619</v>
+        <v>963.5174547744537</v>
       </c>
       <c r="Y4" t="n">
         <v>881.133427010089</v>
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875905</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.107070935493</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>525.6051276760343</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.2346852641123</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C7" t="n">
-        <v>483.2985023362054</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D7" t="n">
-        <v>333.1818629238696</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>333.1818629238696</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641123</v>
+        <v>935.322011573528</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1916.535322085239</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1916.535322085239</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1694.768706654766</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.567279931238</v>
+        <v>1694.768706654766</v>
       </c>
       <c r="V10" t="n">
-        <v>1418.567279931238</v>
+        <v>1440.084218448879</v>
       </c>
       <c r="W10" t="n">
-        <v>1129.150109894277</v>
+        <v>1150.667048411918</v>
       </c>
       <c r="X10" t="n">
-        <v>901.1605589962596</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.3679798527295</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>265.073174061852</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>97.87707477673194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703114</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703114</v>
+        <v>2896.682256801871</v>
       </c>
       <c r="E22" t="n">
-        <v>547.5889719879183</v>
+        <v>2748.769163219478</v>
       </c>
       <c r="F22" t="n">
-        <v>400.6990244900079</v>
+        <v>2601.879215721568</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2434.683116436448</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5999,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>150.8995423128888</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841094</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>4093.4488110627</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3804.031641025739</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>3456.436911942464</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6475,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3911.80034623246</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3622.383176195499</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3394.393625297482</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3173.601046153952</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2401.138520707309</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2218.283686362213</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1998.682221385154</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913447</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>2876.560776129206</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>3473.939263755758</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>4101.537227310364</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4653.446957549651</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384022</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7393,34 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,13 +7429,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492579</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
         <v>2479.398563024106</v>
@@ -7843,13 +7845,13 @@
         <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>3670.08854145803</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>3442.098990560012</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.4176828771276</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610395</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2749052347514</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.005313310877114</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>125.5341284403476</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>194.3131525023041</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>67.07129414993832</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>165.5113759375322</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.00892946589975</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.3938179578229</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>199.9223080965392</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649726.1388750906</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820625</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26442,19 +26444,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994846</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994847</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994851</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994847</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729566.7475195162</v>
+        <v>-729566.7475195164</v>
       </c>
       <c r="C6" t="n">
-        <v>599177.998208076</v>
+        <v>599177.9982080759</v>
       </c>
       <c r="D6" t="n">
-        <v>599177.9982080767</v>
+        <v>599177.9982080769</v>
       </c>
       <c r="E6" t="n">
-        <v>346216.1909896385</v>
+        <v>346216.1909896382</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969935</v>
+        <v>671628.6527969937</v>
       </c>
       <c r="G6" t="n">
         <v>671628.6527969937</v>
@@ -26546,22 +26548,22 @@
         <v>454097.4503997161</v>
       </c>
       <c r="K6" t="n">
-        <v>655716.2804301814</v>
+        <v>671628.6527969936</v>
       </c>
       <c r="L6" t="n">
-        <v>675143.9984238117</v>
+        <v>671628.6527969936</v>
       </c>
       <c r="M6" t="n">
-        <v>590088.9704883014</v>
+        <v>586573.6248614816</v>
       </c>
       <c r="N6" t="n">
-        <v>675143.998423812</v>
+        <v>671628.6527969936</v>
       </c>
       <c r="O6" t="n">
-        <v>675143.998423813</v>
+        <v>671628.6527969933</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969935</v>
+        <v>671628.6527969937</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>62.32826741621767</v>
+        <v>261.1562795319077</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>197.526648681949</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>137.0244658653738</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>114.3191079027592</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>281.4107544962607</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>23.1138760795744</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.44380725519014</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>37.56202139152714</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>198.5176652469641</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>78.28051892682694</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>91.05294467614647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209183</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>506.566534435233</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4971006716333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547056</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>539.5330155967679</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950807</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209193</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34442,25 +34444,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410441</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132147</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>57.65947400496658</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748315</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>405.5586081824376</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.76383318075048</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410451</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3824634.716546299</v>
+        <v>3820622.106532307</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>66.59597893822716</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.56018748672099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4530101301292</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>100.5196155760011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.7181041023629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.92159280918611</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>327.7108703794804</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>87.20461494092821</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.6516337432204</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>35.19779014108477</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>161.5330709997914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>14.76058440587633</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>57.8244908215239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.760686031999</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>86.62626738629581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.36631724422193</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576164</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>26.1362719570587</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>37.01163236946537</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755975</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>52.21533522728885</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>7.408064079031337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.164517693149</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2688.538263200155</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2335.769607930041</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1962.303849668961</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.164517693149</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
@@ -4409,13 +4409,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699.4849621798493</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>530.5487792519424</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672471</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744537</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.133427010089</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827847</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>525.6051276760343</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,25 +4567,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1842.525262422648</v>
       </c>
       <c r="W7" t="n">
-        <v>935.322011573528</v>
+        <v>1553.108092385688</v>
       </c>
       <c r="X7" t="n">
-        <v>935.322011573528</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y7" t="n">
-        <v>935.322011573528</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493311</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3237.520351971869</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533244</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557432</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
         <v>922.6774975139006</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1916.535322085239</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1916.535322085239</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1694.768706654766</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1694.768706654766</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1440.084218448879</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W10" t="n">
-        <v>1150.667048411918</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>922.6774975139006</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.6774975139006</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.1060525954244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1270.536647467212</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.547096569194</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.7545174256642</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3046.798896214207</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3046.798896214207</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2896.682256801871</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2748.769163219478</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2601.879215721568</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2434.683116436448</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.239940187977</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.4488110627</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3677.229491085994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3456.436911942464</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3173.601046153952</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3911.80034623246</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3622.383176195499</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3394.393625297482</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3173.601046153952</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2401.138520707309</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2218.283686362213</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1998.682221385154</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1709.606994729352</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2159.677058245683</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1870.601831589881</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7177,16 +7177,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565524</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>3670.08854145803</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X46" t="n">
-        <v>3442.098990560012</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>3442.098990560012</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4176828771276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>124.9899273367996</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>125.5341284403476</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>194.3131525023041</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.07129414993832</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>165.5113759375322</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.00892946589975</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>180.3938179578229</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>46.45968844823045</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.9223080965392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>279.1149342575596</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820639</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820633</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729566.7475195164</v>
+        <v>-729566.747519516</v>
       </c>
       <c r="C6" t="n">
-        <v>599177.9982080759</v>
+        <v>599177.9982080758</v>
       </c>
       <c r="D6" t="n">
-        <v>599177.9982080769</v>
+        <v>599177.9982080765</v>
       </c>
       <c r="E6" t="n">
-        <v>346216.1909896382</v>
+        <v>345868.8117352818</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969937</v>
+        <v>671281.2735426365</v>
       </c>
       <c r="G6" t="n">
-        <v>671628.6527969937</v>
+        <v>671281.2735426367</v>
       </c>
       <c r="H6" t="n">
-        <v>671628.6527969935</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="I6" t="n">
-        <v>671628.6527969935</v>
+        <v>671281.2735426367</v>
       </c>
       <c r="J6" t="n">
-        <v>454097.4503997161</v>
+        <v>453750.0711453594</v>
       </c>
       <c r="K6" t="n">
-        <v>671628.6527969936</v>
+        <v>671281.2735426365</v>
       </c>
       <c r="L6" t="n">
-        <v>671628.6527969936</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="M6" t="n">
-        <v>586573.6248614816</v>
+        <v>586226.2456071249</v>
       </c>
       <c r="N6" t="n">
-        <v>671628.6527969936</v>
+        <v>671281.2735426367</v>
       </c>
       <c r="O6" t="n">
-        <v>671628.6527969933</v>
+        <v>671281.2735426368</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969937</v>
+        <v>671281.2735426365</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.86547352390437</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>261.1562795319077</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27587,7 +27587,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.0244658653738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>198.2808315333514</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>281.4107544962607</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.1138760795744</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>168.2160505146419</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.56202139152714</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>21.98314684724764</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>78.28051892682694</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.342890039270854e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302377</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,31 +32314,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>687.0167715190038</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,31 +33262,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,16 +34213,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34234,7 +34234,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111248</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579324</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>544.4205270745593</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,31 +36910,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>55.96455263125056</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820622.106532307</v>
+        <v>3822382.636835093</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.4530101301292</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>315.3882082434892</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.20461494092821</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777583</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471489</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.80049431059865</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444121</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>26.1362719570587</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>205.6779548755975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>78.91051008678102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1908.990616856005</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1550.724918249255</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4582,10 +4582,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.506131441393</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>828.5436145009811</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>470.2779158942306</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598635</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3237.520351971869</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3031.542604356091</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3031.542604356091</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2700.479717012521</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2347.711061742406</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1974.245303481326</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.105971505515</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,22 +4983,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
         <v>1722.044275313594</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>1017.232257523796</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>848.2960745958895</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>698.1794351835538</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>550.2663416011607</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1466.014387565344</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1238.024836667327</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436267</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695815</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871884</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>369.499740389278</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,10 +7733,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
         <v>1577.52840832642</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171305</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892237</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>80.62055371233259</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.45968844823045</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>69.70496293143134</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977561</v>
@@ -26331,31 +26331,31 @@
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26432,16 +26432,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26530,40 +26530,40 @@
         <v>599177.9982080765</v>
       </c>
       <c r="E6" t="n">
-        <v>345868.8117352818</v>
+        <v>346181.4530642026</v>
       </c>
       <c r="F6" t="n">
-        <v>671281.2735426365</v>
+        <v>671593.9148715584</v>
       </c>
       <c r="G6" t="n">
-        <v>671281.2735426367</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="H6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.914871558</v>
       </c>
       <c r="I6" t="n">
-        <v>671281.2735426367</v>
+        <v>671593.9148715582</v>
       </c>
       <c r="J6" t="n">
-        <v>453750.0711453594</v>
+        <v>454062.7124742807</v>
       </c>
       <c r="K6" t="n">
-        <v>671281.2735426365</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="L6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.914871558</v>
       </c>
       <c r="M6" t="n">
-        <v>586226.2456071249</v>
+        <v>586538.8869360464</v>
       </c>
       <c r="N6" t="n">
-        <v>671281.2735426367</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="O6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="P6" t="n">
-        <v>671281.2735426365</v>
+        <v>671593.9148715581</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26795,10 +26795,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.2808315333514</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>66.54216182877258</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>21.98314684724764</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923767</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944209</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29328,10 +29328,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.342890039270854e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,19 +34453,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
